--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -1,7 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+  <workbookPr date1904="0"/>
+  <workbookProtection/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
@@ -10,12 +11,12 @@
     <sheet name="100 Followers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="500 Followers" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ms</t>
   </si>
@@ -28,6 +29,51 @@
   <si>
     <t>mean</t>
   </si>
+  <si>
+    <t xml:space="preserve">Temps en ms pour poster un post lorsque nous avons 10 followers</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps en ms pour charger 10 posts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="64"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="64"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Temps en ms pour poster un post lorsque nous avons 100 followers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="64"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps en ms pour charger 100 posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps en ms pour poster un post lorsque nous avons 500 followers      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps en ms pour charger 500 posts</t>
+  </si>
 </sst>
 </file>
 
@@ -36,30 +82,24 @@
   <fonts count="4">
     <font>
       <name val="Calibri"/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
       <i/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b/>
-      <color theme="1"/>
+      <color indexed="64"/>
       <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1" tint="0"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -71,50 +111,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor indexed="44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0"/>
-        <bgColor theme="7" tint="0"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -133,30 +145,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="3" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,49 +496,49 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
-    <a:clrScheme name="New Office">
+    <a:clrScheme name="">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -504,85 +548,32 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill/>
+        <a:solidFill/>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -619,38 +610,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -660,19 +624,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.57421875"/>
-    <col customWidth="1" min="3" max="3" width="13.8515625"/>
-    <col customWidth="1" min="4" max="4" width="12.140625"/>
+    <col customWidth="1" min="2" max="2" style="0" width="12.57"/>
+    <col customWidth="1" min="3" max="3" style="0" width="13.85"/>
+    <col customWidth="1" min="4" max="4" style="0" width="12.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" ht="13.800000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,9 +653,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="13.800000000000001">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
@@ -700,9 +671,12 @@
         <f t="shared" ref="D2:D9" si="0">AVERAGE(B2:C2)</f>
         <v>369</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="3">
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="13.800000000000001">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3">
@@ -715,9 +689,12 @@
         <f t="shared" si="0"/>
         <v>581.5</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="3">
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="13.800000000000001">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -730,9 +707,12 @@
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="3">
+      <c r="N4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="13.800000000000001">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5">
@@ -745,9 +725,12 @@
         <f t="shared" si="0"/>
         <v>391.5</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="3">
+      <c r="N5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.800000000000001">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6">
@@ -760,9 +743,12 @@
         <f t="shared" si="0"/>
         <v>493.5</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="3">
+      <c r="N6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="13.800000000000001">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7">
@@ -775,9 +761,12 @@
         <f t="shared" si="0"/>
         <v>293.5</v>
       </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="3">
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="13.800000000000001">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8">
@@ -790,9 +779,12 @@
         <f t="shared" si="0"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="3">
+      <c r="N8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="13.800000000000001">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9">
@@ -805,9 +797,12 @@
         <f t="shared" si="0"/>
         <v>373</v>
       </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="3">
+      <c r="N9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="13.800000000000001">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10">
@@ -817,12 +812,15 @@
         <v>301</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D31" si="1">AVERAGE(B10:C10)</f>
+        <f t="shared" ref="D10:D32" si="1">AVERAGE(B10:C10)</f>
         <v>314</v>
       </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="3">
+      <c r="N10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="13.800000000000001">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
@@ -835,9 +833,12 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="3">
+      <c r="N11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="13.800000000000001">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12">
@@ -850,9 +851,12 @@
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="3">
+      <c r="N12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="13.800000000000001">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13">
@@ -865,9 +869,12 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="3">
+      <c r="N13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="13.800000000000001">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14">
@@ -880,9 +887,12 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="3">
+      <c r="N14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="13.800000000000001">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15">
@@ -895,9 +905,12 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="3">
+      <c r="N15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="13.800000000000001">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16">
@@ -910,9 +923,12 @@
         <f t="shared" si="1"/>
         <v>230.5</v>
       </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="3">
+      <c r="N16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="13.800000000000001">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17">
@@ -925,9 +941,12 @@
         <f t="shared" si="1"/>
         <v>391.5</v>
       </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="3">
+      <c r="N17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="13.800000000000001">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18">
@@ -940,9 +959,12 @@
         <f t="shared" si="1"/>
         <v>297.5</v>
       </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="3">
+      <c r="N18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="13.800000000000001">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19">
@@ -955,9 +977,12 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="3">
+      <c r="N19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="13.800000000000001">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20">
@@ -970,9 +995,12 @@
         <f t="shared" si="1"/>
         <v>264.5</v>
       </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="3">
+      <c r="N20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="13.800000000000001">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21">
@@ -985,9 +1013,12 @@
         <f t="shared" si="1"/>
         <v>236.5</v>
       </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="3">
+      <c r="N21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="13.800000000000001">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1000,9 +1031,12 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="3">
+      <c r="N22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="13.800000000000001">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1015,9 +1049,12 @@
         <f t="shared" si="1"/>
         <v>266.5</v>
       </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="3">
+      <c r="N23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="13.800000000000001">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1030,9 +1067,12 @@
         <f t="shared" si="1"/>
         <v>281.5</v>
       </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="3">
+      <c r="N24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="13.800000000000001">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1045,9 +1085,12 @@
         <f t="shared" si="1"/>
         <v>268.5</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="3">
+      <c r="N25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="13.800000000000001">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1060,9 +1103,12 @@
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="3">
+      <c r="N26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="13.800000000000001">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1075,9 +1121,12 @@
         <f t="shared" si="1"/>
         <v>204.5</v>
       </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="3">
+      <c r="N27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="13.800000000000001">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1090,9 +1139,12 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="3">
+      <c r="N28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="13.800000000000001">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1105,9 +1157,12 @@
         <f t="shared" si="1"/>
         <v>233.5</v>
       </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="3">
+      <c r="N29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="13.800000000000001">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1121,8 +1176,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="4">
+    <row r="31" ht="13.800000000000001">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1136,43 +1191,301 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" ht="13.800000000000001">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>AVERAGE(B2:B31)</f>
         <v>329</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <f>AVERAGE(C2:C31)</f>
-        <v>293.86666666666667</v>
-      </c>
-      <c r="D32" s="6">
-        <f>AVERAGE(B32:C32)</f>
-        <v>311.43333333333334</v>
+        <v>293.86666666666702</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>311.433333333333</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="13.800000000000001">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" ht="13.800000000000001">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" ht="13.800000000000001">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" ht="13.800000000000001">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" ht="13.800000000000001">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" ht="13.800000000000001">
+      <c r="A40" s="4">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" ht="13.800000000000001">
+      <c r="A41" s="4">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" ht="13.800000000000001">
+      <c r="A42" s="4">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" ht="13.800000000000001">
+      <c r="A43" s="4">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" ht="13.800000000000001">
+      <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" ht="13.800000000000001">
+      <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" ht="13.800000000000001">
+      <c r="A46" s="4">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" ht="13.800000000000001">
+      <c r="A47" s="4">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" ht="13.800000000000001">
+      <c r="A48" s="4">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" ht="13.800000000000001">
+      <c r="A49" s="4">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" ht="13.800000000000001">
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" ht="13.800000000000001">
+      <c r="A51" s="4">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" ht="13.800000000000001">
+      <c r="A52" s="4">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" ht="13.800000000000001">
+      <c r="A53" s="4">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" ht="13.800000000000001">
+      <c r="A54" s="4">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" ht="13.800000000000001">
+      <c r="A55" s="4">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" ht="13.800000000000001">
+      <c r="A56" s="4">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" ht="13.800000000000001">
+      <c r="A57" s="4">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" ht="13.800000000000001">
+      <c r="A58" s="4">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" ht="13.800000000000001">
+      <c r="A59" s="4">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" ht="13.800000000000001">
+      <c r="A60" s="4">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" ht="13.800000000000001">
+      <c r="A61" s="4">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" ht="13.800000000000001">
+      <c r="A62" s="4">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" ht="13.800000000000001">
+      <c r="A63" s="4">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" ht="13.800000000000001">
+      <c r="A64" s="6">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" ht="13.800000000000001">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <f>AVERAGE(B35:B64)</f>
+        <v>227.86666666666699</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.57421875"/>
-    <col customWidth="1" min="3" max="3" width="13.8515625"/>
-    <col customWidth="1" min="4" max="4" width="12.140625"/>
+    <col customWidth="1" min="2" max="2" style="0" width="12.57"/>
+    <col customWidth="1" min="3" max="3" style="0" width="13.85"/>
+    <col customWidth="1" min="4" max="4" style="0" width="12.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1188,9 +1501,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1205,7 +1521,7 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1220,7 +1536,7 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1235,7 +1551,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1250,7 +1566,7 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1265,7 +1581,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1280,7 +1596,7 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1295,7 +1611,7 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1310,7 +1626,7 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1320,12 +1636,12 @@
         <v>984</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D31" si="3">AVERAGE(B10:C10)</f>
+        <f t="shared" ref="D10:D32" si="3">AVERAGE(B10:C10)</f>
         <v>996.5</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1340,7 +1656,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1355,7 +1671,7 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1370,7 +1686,7 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1385,7 +1701,7 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1400,7 +1716,7 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1415,7 +1731,7 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1430,7 +1746,7 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1445,7 +1761,7 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1460,7 +1776,7 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1475,7 +1791,7 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1490,7 +1806,7 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1505,7 +1821,7 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1520,7 +1836,7 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1535,7 +1851,7 @@
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1550,7 +1866,7 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1565,7 +1881,7 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1580,7 +1896,7 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1595,7 +1911,7 @@
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1610,7 +1926,7 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1625,7 +1941,7 @@
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1640,42 +1956,302 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>1245.7666666666667</v>
-      </c>
-      <c r="C32" s="6">
+        <v>1245.7666666666701</v>
+      </c>
+      <c r="C32" s="5">
         <f>AVERAGE(C2:C31)</f>
-        <v>1202.3666666666666</v>
-      </c>
-      <c r="D32" s="6">
-        <f>AVERAGE(B32:C32)</f>
-        <v>1224.0666666666666</v>
+        <v>1202.36666666667</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="3"/>
+        <v>1224.06666666667</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="13.800000000000001">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="36" ht="13.800000000000001">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="37" ht="13.800000000000001">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="38" ht="13.800000000000001">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="39" ht="13.800000000000001">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="40" ht="13.800000000000001">
+      <c r="A40" s="4">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="41" ht="13.800000000000001">
+      <c r="A41" s="4">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="42" ht="13.800000000000001">
+      <c r="A42" s="4">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="43" ht="13.800000000000001">
+      <c r="A43" s="4">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="44" ht="13.800000000000001">
+      <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="45" ht="13.800000000000001">
+      <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="46" ht="13.800000000000001">
+      <c r="A46" s="4">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="47" ht="13.800000000000001">
+      <c r="A47" s="4">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="48" ht="13.800000000000001">
+      <c r="A48" s="4">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="49" ht="13.800000000000001">
+      <c r="A49" s="4">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="50" ht="13.800000000000001">
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="51" ht="13.800000000000001">
+      <c r="A51" s="4">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="52" ht="13.800000000000001">
+      <c r="A52" s="4">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="53" ht="13.800000000000001">
+      <c r="A53" s="4">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="54" ht="13.800000000000001">
+      <c r="A54" s="4">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="55" ht="13.800000000000001">
+      <c r="A55" s="4">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="56" ht="13.800000000000001">
+      <c r="A56" s="4">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="57" ht="13.800000000000001">
+      <c r="A57" s="4">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="58" ht="13.800000000000001">
+      <c r="A58" s="4">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="59" ht="13.800000000000001">
+      <c r="A59" s="4">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="60" ht="13.800000000000001">
+      <c r="A60" s="4">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="61" ht="13.800000000000001">
+      <c r="A61" s="4">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="62" ht="13.800000000000001">
+      <c r="A62" s="4">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="63" ht="13.800000000000001">
+      <c r="A63" s="4">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="64" ht="13.800000000000001">
+      <c r="A64" s="6">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="65" ht="13.800000000000001">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <f>AVERAGE(B35:B64)</f>
+        <v>1734.4000000000001</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.57421875"/>
-    <col customWidth="1" min="3" max="3" width="13.8515625"/>
-    <col customWidth="1" min="4" max="4" width="12.140625"/>
+    <col customWidth="1" min="2" max="2" style="0" width="12.57"/>
+    <col customWidth="1" min="3" max="3" style="0" width="13.85"/>
+    <col customWidth="1" min="4" max="4" style="0" width="12.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -1691,9 +2267,12 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1703,12 +2282,12 @@
         <v>6156</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D9" si="4">AVERAGE(B2:C2)</f>
         <v>6167</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1718,12 +2297,12 @@
         <v>5465</v>
       </c>
       <c r="D3">
-        <f>AVERAGE(B3:C3)</f>
+        <f t="shared" si="4"/>
         <v>5476</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1733,12 +2312,12 @@
         <v>5320</v>
       </c>
       <c r="D4">
-        <f>AVERAGE(B4:C4)</f>
+        <f t="shared" si="4"/>
         <v>5356</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1748,12 +2327,12 @@
         <v>5386</v>
       </c>
       <c r="D5">
-        <f>AVERAGE(B5:C5)</f>
+        <f t="shared" si="4"/>
         <v>5403</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1763,12 +2342,12 @@
         <v>5335</v>
       </c>
       <c r="D6">
-        <f>AVERAGE(B6:C6)</f>
+        <f t="shared" si="4"/>
         <v>5363.5</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1778,12 +2357,12 @@
         <v>6340</v>
       </c>
       <c r="D7">
-        <f>AVERAGE(B7:C7)</f>
+        <f t="shared" si="4"/>
         <v>6351</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1793,12 +2372,12 @@
         <v>5432</v>
       </c>
       <c r="D8">
-        <f>AVERAGE(B8:C8)</f>
+        <f t="shared" si="4"/>
         <v>5438.5</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1808,12 +2387,12 @@
         <v>5089</v>
       </c>
       <c r="D9">
-        <f>AVERAGE(B9:C9)</f>
+        <f t="shared" si="4"/>
         <v>5106</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1823,12 +2402,12 @@
         <v>5112</v>
       </c>
       <c r="D10">
-        <f>AVERAGE(B10:C10)</f>
+        <f t="shared" ref="D10:D32" si="5">AVERAGE(B10:C10)</f>
         <v>5127</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1838,12 +2417,12 @@
         <v>5142</v>
       </c>
       <c r="D11">
-        <f>AVERAGE(B11:C11)</f>
+        <f t="shared" si="5"/>
         <v>5153</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1853,12 +2432,12 @@
         <v>5164</v>
       </c>
       <c r="D12">
-        <f>AVERAGE(B12:C12)</f>
+        <f t="shared" si="5"/>
         <v>5176.5</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1868,12 +2447,12 @@
         <v>5304</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(B13:C13)</f>
+        <f t="shared" si="5"/>
         <v>5316</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1883,12 +2462,12 @@
         <v>5262</v>
       </c>
       <c r="D14">
-        <f>AVERAGE(B14:C14)</f>
+        <f t="shared" si="5"/>
         <v>5272.5</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1898,12 +2477,12 @@
         <v>5453</v>
       </c>
       <c r="D15">
-        <f>AVERAGE(B15:C15)</f>
+        <f t="shared" si="5"/>
         <v>5465</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1913,12 +2492,12 @@
         <v>5338</v>
       </c>
       <c r="D16">
-        <f>AVERAGE(B16:C16)</f>
+        <f t="shared" si="5"/>
         <v>5353.5</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1928,12 +2507,12 @@
         <v>5760</v>
       </c>
       <c r="D17">
-        <f>AVERAGE(B17:C17)</f>
+        <f t="shared" si="5"/>
         <v>5774.5</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1943,12 +2522,12 @@
         <v>5391</v>
       </c>
       <c r="D18">
-        <f>AVERAGE(B18:C18)</f>
+        <f t="shared" si="5"/>
         <v>5401.5</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1958,12 +2537,12 @@
         <v>5223</v>
       </c>
       <c r="D19">
-        <f>AVERAGE(B19:C19)</f>
+        <f t="shared" si="5"/>
         <v>5239.5</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1973,12 +2552,12 @@
         <v>5946</v>
       </c>
       <c r="D20">
-        <f>AVERAGE(B20:C20)</f>
+        <f t="shared" si="5"/>
         <v>5967.5</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1988,12 +2567,12 @@
         <v>5842</v>
       </c>
       <c r="D21">
-        <f>AVERAGE(B21:C21)</f>
+        <f t="shared" si="5"/>
         <v>5851.5</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22">
@@ -2003,12 +2582,12 @@
         <v>5401</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(B22:C22)</f>
+        <f t="shared" si="5"/>
         <v>5411</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2018,12 +2597,12 @@
         <v>5095</v>
       </c>
       <c r="D23">
-        <f>AVERAGE(B23:C23)</f>
+        <f t="shared" si="5"/>
         <v>5103.5</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2033,12 +2612,12 @@
         <v>5128</v>
       </c>
       <c r="D24">
-        <f>AVERAGE(B24:C24)</f>
+        <f t="shared" si="5"/>
         <v>5142</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2048,12 +2627,12 @@
         <v>5162</v>
       </c>
       <c r="D25">
-        <f>AVERAGE(B25:C25)</f>
+        <f t="shared" si="5"/>
         <v>5175.5</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2063,12 +2642,12 @@
         <v>5121</v>
       </c>
       <c r="D26">
-        <f>AVERAGE(B26:C26)</f>
+        <f t="shared" si="5"/>
         <v>5167.5</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2078,12 +2657,12 @@
         <v>5147</v>
       </c>
       <c r="D27">
-        <f>AVERAGE(B27:C27)</f>
+        <f t="shared" si="5"/>
         <v>5155</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2093,12 +2672,12 @@
         <v>5309</v>
       </c>
       <c r="D28">
-        <f>AVERAGE(B28:C28)</f>
+        <f t="shared" si="5"/>
         <v>5320.5</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2108,12 +2687,12 @@
         <v>5203</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(B29:C29)</f>
+        <f t="shared" si="5"/>
         <v>5213.5</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2123,12 +2702,12 @@
         <v>5681</v>
       </c>
       <c r="D30">
-        <f>AVERAGE(B30:C30)</f>
+        <f t="shared" si="5"/>
         <v>5733.5</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2138,31 +2717,285 @@
         <v>4956</v>
       </c>
       <c r="D31">
-        <f>AVERAGE(B31:C31)</f>
+        <f t="shared" si="5"/>
         <v>4971.5</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <f>AVERAGE(B2:B31)</f>
         <v>5421.3999999999996</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <f>AVERAGE(C2:C31)</f>
-        <v>5388.7666666666664</v>
-      </c>
-      <c r="D32" s="7">
-        <f>AVERAGE(B32:C32)</f>
-        <v>5405.083333333333</v>
+        <v>5388.7666666666701</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="5"/>
+        <v>5405.0833333333303</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="13.800000000000001">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="36" ht="13.800000000000001">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="37" ht="13.800000000000001">
+      <c r="A37" s="4">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>7226</v>
+      </c>
+    </row>
+    <row r="38" ht="13.800000000000001">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="39" ht="13.800000000000001">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="40" ht="13.800000000000001">
+      <c r="A40" s="4">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="41" ht="13.800000000000001">
+      <c r="A41" s="4">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="42" ht="13.800000000000001">
+      <c r="A42" s="4">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="43" ht="13.800000000000001">
+      <c r="A43" s="4">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>7137</v>
+      </c>
+    </row>
+    <row r="44" ht="13.800000000000001">
+      <c r="A44" s="4">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="45" ht="13.800000000000001">
+      <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="46" ht="13.800000000000001">
+      <c r="A46" s="4">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="47" ht="13.800000000000001">
+      <c r="A47" s="4">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="48" ht="13.800000000000001">
+      <c r="A48" s="4">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>7725</v>
+      </c>
+    </row>
+    <row r="49" ht="13.800000000000001">
+      <c r="A49" s="4">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>7721</v>
+      </c>
+    </row>
+    <row r="50" ht="13.800000000000001">
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="51" ht="13.800000000000001">
+      <c r="A51" s="4">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="52" ht="13.800000000000001">
+      <c r="A52" s="4">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="53" ht="13.800000000000001">
+      <c r="A53" s="4">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="54" ht="13.800000000000001">
+      <c r="A54" s="4">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="55" ht="13.800000000000001">
+      <c r="A55" s="4">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="56" ht="13.800000000000001">
+      <c r="A56" s="4">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="57" ht="13.800000000000001">
+      <c r="A57" s="4">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="58" ht="13.800000000000001">
+      <c r="A58" s="4">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="59" ht="13.800000000000001">
+      <c r="A59" s="4">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="60" ht="13.800000000000001">
+      <c r="A60" s="4">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="61" ht="13.800000000000001">
+      <c r="A61" s="4">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="62" ht="13.800000000000001">
+      <c r="A62" s="4">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="63" ht="13.800000000000001">
+      <c r="A63" s="4">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="64" ht="13.800000000000001">
+      <c r="A64" s="6">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="65" ht="13.800000000000001">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="5">
+        <f>AVERAGE(B35:B64)</f>
+        <v>7024.2666666666701</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>